--- a/Drug lists/TZDDrugNames.xlsx
+++ b/Drug lists/TZDDrugNames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD Research\PhD work\clinpath-CT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD work\clinpath_CT\Drug lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D578B45E-766D-40E9-9871-20F584468480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E55E2-1454-4A55-997E-B299F83385E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FF05BFA-3966-487E-BBF0-A4255D461893}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" xr2:uid="{7FF05BFA-3966-487E-BBF0-A4255D461893}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Pioglitazone</t>
   </si>
@@ -111,19 +111,34 @@
   </si>
   <si>
     <t>Drug Names</t>
+  </si>
+  <si>
+    <t>metformin-pioglitazone</t>
+  </si>
+  <si>
+    <t>pioglitazone-metformin</t>
+  </si>
+  <si>
+    <t>duetact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,8 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,142 +500,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471A1BB-73C1-463A-AD09-FDB168446F80}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
